--- a/Updated_timetable.xlsx
+++ b/Updated_timetable.xlsx
@@ -4,11 +4,10 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
@@ -21,7 +20,7 @@
     <t>HOUSE CHORES</t>
   </si>
   <si>
-    <t>Dated 15-Feb-2019 to 22-Feb-2019</t>
+    <t>Dated 25-Mar-2019 to 01-Apr-2019</t>
   </si>
   <si>
     <t>Day</t>
@@ -45,31 +44,31 @@
     <t>Water</t>
   </si>
   <si>
+    <t>Note:Timetable changes on Sunday Midnight</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
     <t>Dan</t>
   </si>
   <si>
+    <t>Marvinus</t>
+  </si>
+  <si>
     <t>Harry</t>
   </si>
   <si>
+    <t>dan</t>
+  </si>
+  <si>
     <t>Mwai</t>
   </si>
   <si>
-    <t>dan</t>
-  </si>
-  <si>
-    <t>Marvinus</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
     <t>mwai</t>
-  </si>
-  <si>
-    <t>Marvin</t>
   </si>
   <si>
     <t>Wednesday</t>
@@ -139,15 +138,27 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -156,25 +167,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -191,6 +187,74 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF00CC00"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF00CC00"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF00CC00"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF00CC00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF00CC00"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF00CC00"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF00CC00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF00CC00"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF00CC00"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF111111"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF111111"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF111111"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF111111"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -202,63 +266,93 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -562,503 +656,263 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:CF12"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="14.43"/>
-    <col customWidth="1" max="2" min="2" style="11" width="15.57"/>
-    <col customWidth="1" max="3" min="3" style="11" width="13"/>
-    <col customWidth="1" max="4" min="4" style="11" width="10.14"/>
-    <col customWidth="1" max="5" min="5" style="11" width="13.43"/>
-    <col customWidth="1" max="6" min="6" style="11" width="8.529999999999999"/>
-    <col customWidth="1" max="7" min="7" style="11" width="14.14"/>
-    <col customWidth="1" max="8" min="8" style="11" width="14.57"/>
-    <col customWidth="1" max="1025" min="9" style="11" width="8.529999999999999"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" customHeight="1" ht="13.8" r="1" s="12" spans="1:84">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="11" t="n"/>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="11" t="n"/>
-      <c r="G1" s="11" t="n"/>
-      <c r="H1" s="11" t="n"/>
-      <c r="I1" s="13" t="n"/>
-      <c r="J1" s="13" t="n"/>
-      <c r="K1" s="13" t="n"/>
-      <c r="L1" s="13" t="n"/>
-      <c r="M1" s="13" t="n"/>
-      <c r="N1" s="13" t="n"/>
-      <c r="O1" s="13" t="n"/>
-      <c r="P1" s="13" t="n"/>
-      <c r="Q1" s="13" t="n"/>
-      <c r="R1" s="13" t="n"/>
-      <c r="S1" s="13" t="n"/>
-      <c r="T1" s="13" t="n"/>
-      <c r="U1" s="13" t="n"/>
-      <c r="V1" s="13" t="n"/>
-      <c r="W1" s="13" t="n"/>
-      <c r="X1" s="13" t="n"/>
-      <c r="Y1" s="13" t="n"/>
-      <c r="Z1" s="13" t="n"/>
-      <c r="AA1" s="13" t="n"/>
-      <c r="AB1" s="13" t="n"/>
-      <c r="AC1" s="13" t="n"/>
-      <c r="AD1" s="13" t="n"/>
-      <c r="AE1" s="13" t="n"/>
-      <c r="AF1" s="13" t="n"/>
-      <c r="AG1" s="13" t="n"/>
-      <c r="AH1" s="13" t="n"/>
-      <c r="AI1" s="13" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-      <c r="AK1" s="13" t="n"/>
-      <c r="AL1" s="13" t="n"/>
-      <c r="AM1" s="13" t="n"/>
-      <c r="AN1" s="13" t="n"/>
-      <c r="AO1" s="13" t="n"/>
-      <c r="AP1" s="13" t="n"/>
-      <c r="AQ1" s="13" t="n"/>
-      <c r="AR1" s="13" t="n"/>
-      <c r="AS1" s="13" t="n"/>
-      <c r="AT1" s="13" t="n"/>
-      <c r="AU1" s="13" t="n"/>
-      <c r="AV1" s="13" t="n"/>
-      <c r="AW1" s="13" t="n"/>
-      <c r="AX1" s="13" t="n"/>
-      <c r="AY1" s="13" t="n"/>
-      <c r="AZ1" s="13" t="n"/>
-      <c r="BA1" s="13" t="n"/>
-      <c r="BB1" s="13" t="n"/>
-      <c r="BC1" s="13" t="n"/>
-      <c r="BD1" s="13" t="n"/>
-      <c r="BE1" s="13" t="n"/>
-      <c r="BF1" s="13" t="n"/>
-      <c r="BG1" s="13" t="n"/>
-      <c r="BH1" s="13" t="n"/>
-      <c r="BI1" s="13" t="n"/>
-      <c r="BJ1" s="13" t="n"/>
-      <c r="BK1" s="13" t="n"/>
-      <c r="BL1" s="13" t="n"/>
-      <c r="BM1" s="13" t="n"/>
-      <c r="BN1" s="13" t="n"/>
-      <c r="BO1" s="13" t="n"/>
-      <c r="BP1" s="13" t="n"/>
-      <c r="BQ1" s="13" t="n"/>
-      <c r="BR1" s="13" t="n"/>
-      <c r="BS1" s="13" t="n"/>
-      <c r="BT1" s="13" t="n"/>
-      <c r="BU1" s="13" t="n"/>
-      <c r="BV1" s="13" t="n"/>
-      <c r="BW1" s="13" t="n"/>
-      <c r="BX1" s="13" t="n"/>
-      <c r="BY1" s="13" t="n"/>
-      <c r="BZ1" s="13" t="n"/>
-      <c r="CA1" s="13" t="n"/>
-      <c r="CB1" s="13" t="n"/>
-      <c r="CC1" s="13" t="n"/>
-      <c r="CD1" s="13" t="n"/>
-      <c r="CE1" s="13" t="n"/>
-      <c r="CF1" s="13" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="12" spans="1:84">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="11" t="n"/>
-      <c r="D2" s="11" t="n"/>
-      <c r="E2" s="11" t="n"/>
-      <c r="F2" s="11" t="n"/>
-      <c r="G2" s="11" t="n"/>
-      <c r="H2" s="11" t="n"/>
-      <c r="I2" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="3" s="12" spans="1:84">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="11" t="n"/>
-      <c r="C3" s="11" t="n"/>
-      <c r="D3" s="11" t="n"/>
-      <c r="E3" s="11" t="n"/>
-      <c r="F3" s="11" t="n"/>
-      <c r="G3" s="11" t="n"/>
-      <c r="H3" s="11" t="n"/>
-      <c r="I3" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="12" spans="1:84">
-      <c r="A4" s="11" t="n"/>
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="11" t="n"/>
-      <c r="D4" s="11" t="n"/>
-      <c r="E4" s="11" t="n"/>
-      <c r="F4" s="11" t="n"/>
-      <c r="G4" s="11" t="n"/>
-      <c r="H4" s="11" t="n"/>
-      <c r="I4" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="5" s="12" spans="1:84">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="11" t="n"/>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="11" t="n"/>
-      <c r="I5" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="12" spans="1:84">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="11" t="n"/>
-      <c r="D6" s="11" t="n"/>
-      <c r="E6" s="11" t="n"/>
-      <c r="F6" s="11" t="n"/>
-      <c r="G6" s="11" t="n"/>
-      <c r="H6" s="11" t="n"/>
-      <c r="I6" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="7" s="12" spans="1:84">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="11" t="n"/>
-      <c r="F7" s="11" t="n"/>
-      <c r="G7" s="11" t="n"/>
-      <c r="H7" s="11" t="n"/>
-      <c r="I7" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="8" s="12" spans="1:84">
-      <c r="A8" s="11" t="n"/>
-      <c r="B8" s="11" t="n"/>
-      <c r="C8" s="11" t="n"/>
-      <c r="D8" s="11" t="n"/>
-      <c r="E8" s="11" t="n"/>
-      <c r="F8" s="11" t="n"/>
-      <c r="G8" s="11" t="n"/>
-      <c r="H8" s="11" t="n"/>
-      <c r="I8" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="9" s="12" spans="1:84">
-      <c r="A9" s="11" t="n"/>
-      <c r="B9" s="11" t="n"/>
-      <c r="C9" s="11" t="n"/>
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="11" t="n"/>
-      <c r="F9" s="11" t="n"/>
-      <c r="G9" s="11" t="n"/>
-      <c r="H9" s="11" t="n"/>
-      <c r="I9" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="10" s="12" spans="1:84">
-      <c r="A10" s="11" t="n"/>
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="11" t="n"/>
-      <c r="D10" s="11" t="n"/>
-      <c r="E10" s="11" t="n"/>
-      <c r="F10" s="11" t="n"/>
-      <c r="G10" s="11" t="n"/>
-      <c r="H10" s="11" t="n"/>
-      <c r="I10" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="12" spans="1:84">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="11" t="n"/>
-      <c r="C11" s="11" t="n"/>
-      <c r="D11" s="11" t="n"/>
-      <c r="E11" s="11" t="n"/>
-      <c r="F11" s="11" t="n"/>
-      <c r="G11" s="11" t="n"/>
-      <c r="H11" s="11" t="n"/>
-      <c r="I11" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="12" s="12" spans="1:84">
-      <c r="A12" s="11" t="n"/>
-      <c r="B12" s="11" t="n"/>
-      <c r="C12" s="11" t="n"/>
-      <c r="D12" s="11" t="n"/>
-      <c r="E12" s="11" t="n"/>
-      <c r="F12" s="11" t="n"/>
-      <c r="G12" s="11" t="n"/>
-      <c r="H12" s="11" t="n"/>
-      <c r="I12" s="11" t="n"/>
-    </row>
-  </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K3" activeCellId="0" pane="topLeft" sqref="K3"/>
+      <selection activeCell="K15" activeCellId="0" pane="topLeft" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="8.94"/>
-    <col customWidth="1" max="2" min="2" style="11" width="6.98"/>
-    <col customWidth="1" max="4" min="3" style="11" width="8.85"/>
-    <col customWidth="1" max="5" min="5" style="11" width="15.35"/>
-    <col customWidth="1" max="6" min="6" style="11" width="6.98"/>
-    <col customWidth="1" max="8" min="7" style="11" width="8.85"/>
-    <col customWidth="1" max="9" min="9" style="11" width="10.06"/>
-    <col customWidth="1" max="1025" min="10" style="11" width="9.140000000000001"/>
+    <col customWidth="1" max="1" min="1" style="15" width="10.95"/>
+    <col customWidth="1" max="2" min="2" style="15" width="6.98"/>
+    <col customWidth="1" max="3" min="3" style="15" width="9.359999999999999"/>
+    <col customWidth="1" max="4" min="4" style="15" width="10.09"/>
+    <col customWidth="1" max="5" min="5" style="15" width="15.35"/>
+    <col customWidth="1" max="6" min="6" style="15" width="6.98"/>
+    <col customWidth="1" max="8" min="7" style="15" width="8.85"/>
+    <col customWidth="1" max="9" min="9" style="15" width="10.06"/>
+    <col customWidth="1" max="1025" min="10" style="15" width="9.140000000000001"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.05" r="1" s="14" spans="1:10">
-      <c r="A1" s="15" t="s">
+    <row customHeight="1" ht="22.05" r="1" s="16" spans="1:10">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.05" r="2" s="14" spans="1:10">
-      <c r="A2" s="15" t="s">
+    <row customHeight="1" ht="22.05" r="2" s="16" spans="1:10">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" s="14" spans="1:10">
-      <c r="A3" s="16" t="s">
+    <row customHeight="1" ht="15" r="3" s="16" spans="1:10">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11" t="n"/>
-      <c r="J3" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="4" s="14" spans="1:10">
-      <c r="A4" s="18" t="n"/>
-      <c r="B4" s="19" t="s">
+    </row>
+    <row customHeight="1" ht="13.8" r="4" s="16" spans="1:10">
+      <c r="A4" s="20" t="n"/>
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="n"/>
-      <c r="E4" s="18" t="n"/>
-      <c r="F4" s="18" t="n"/>
-      <c r="G4" s="18" t="n"/>
-      <c r="H4" s="18" t="n"/>
-      <c r="I4" s="11" t="n"/>
-      <c r="J4" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="14" spans="1:10">
-      <c r="A5" s="18" t="s">
+      <c r="D4" s="20" t="n"/>
+      <c r="E4" s="20" t="n"/>
+      <c r="F4" s="20" t="n"/>
+      <c r="G4" s="20" t="n"/>
+      <c r="H4" s="20" t="n"/>
+      <c r="J4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="16" spans="1:10">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="6" s="16" spans="1:10">
+      <c r="A6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11" t="n"/>
-      <c r="J5" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="6" s="14" spans="1:10">
-      <c r="A6" s="18" t="s">
+    </row>
+    <row customHeight="1" ht="13.8" r="7" s="16" spans="1:10">
+      <c r="A7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="E7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="G7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="8" s="16" spans="1:10">
+      <c r="A8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="E8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="7" s="14" spans="1:10">
-      <c r="A7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="G8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="16" spans="1:10">
+      <c r="A9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="C9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="8" s="14" spans="1:10">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="G9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="10" s="16" spans="1:10">
+      <c r="A10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="11" s="16" spans="1:10">
+      <c r="A11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="9" s="14" spans="1:10">
-      <c r="A9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="10" s="14" spans="1:10">
-      <c r="A10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="11" s="14" spans="1:10">
-      <c r="A11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>10</v>
+      <c r="G11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/Updated_timetable.xlsx
+++ b/Updated_timetable.xlsx
@@ -20,7 +20,7 @@
     <t>HOUSE CHORES</t>
   </si>
   <si>
-    <t>Dated 25-Mar-2019 to 01-Apr-2019</t>
+    <t>Dated 06-Apr-2019 to 13-Apr-2019</t>
   </si>
   <si>
     <t>Day</t>
